--- a/documents/nodejs 통신값.xlsx
+++ b/documents/nodejs 통신값.xlsx
@@ -185,7 +185,7 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>toon_id, toon_site, toon_name, wrt_name, toon_thumb_url, (memo.)content, 해당 작품이 구독되어있는지, 숨김되어있는지</t>
+    <t>toon_id, (memo.)content, 해당 작품이 구독되어있는지, 숨김되어있는지</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -553,7 +553,7 @@
   <dimension ref="A1:D100"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1"/>

--- a/documents/nodejs 통신값.xlsx
+++ b/documents/nodejs 통신값.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="37">
   <si>
     <t>줘야 하는 바디</t>
   </si>
@@ -186,6 +186,42 @@
   </si>
   <si>
     <t>toon_id, (memo.)content, 해당 작품이 구독되어있는지, 숨김되어있는지</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>p</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>ost/detailgenrelist</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>t</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>oon_id</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>해당 toon_id 쿼리 돌려서 나오는 장르 값 모두</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -552,8 +588,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D100"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1"/>
@@ -751,7 +787,17 @@
         <v>32</v>
       </c>
     </row>
-    <row r="22" spans="2:4" ht="16.5" customHeight="1"/>
+    <row r="22" spans="2:4" ht="16.5" customHeight="1">
+      <c r="B22" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
     <row r="23" spans="2:4" ht="16.5" customHeight="1"/>
     <row r="24" spans="2:4" ht="16.5" customHeight="1"/>
     <row r="25" spans="2:4" ht="16.5" customHeight="1"/>

--- a/documents/nodejs 통신값.xlsx
+++ b/documents/nodejs 통신값.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\CAU\Documents\Readers\documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KSY\Documents\GitHub\Readers\documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{008C2B6A-07D4-47E7-AC17-FE46542BE9AD}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="12870" windowHeight="9225"/>
+    <workbookView xWindow="0" yWindow="3015" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -169,22 +170,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">해당 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Malgun Gothic"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>toon_id에 상응하는 episode list(썸네일, 제목, 업데이트날짜, 해당 user_id를 가진 유저의 북마크 여부)</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>toon_id, (memo.)content, 해당 작품이 구독되어있는지, 숨김되어있는지</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -224,11 +209,15 @@
     <t>해당 toon_id 쿼리 돌려서 나오는 장르 값 모두</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
+  <si>
+    <t>toon_id, curr_epi(에피소드 이름), epi_url, epi_thumb_url, epi_date, bm_flag(북마크 여부)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3">
     <font>
       <sz val="11"/>
@@ -585,11 +574,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D100"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:D99"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1"/>
@@ -764,40 +753,40 @@
         <v>23</v>
       </c>
     </row>
-    <row r="19" spans="2:4" ht="16.5" customHeight="1"/>
+    <row r="19" spans="2:4" ht="16.5" customHeight="1">
+      <c r="B19" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
     <row r="20" spans="2:4" ht="16.5" customHeight="1">
       <c r="B20" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
     </row>
     <row r="21" spans="2:4" ht="16.5" customHeight="1">
       <c r="B21" s="1" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="22" spans="2:4" ht="16.5" customHeight="1">
-      <c r="B22" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="C22" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="D22" s="1" t="s">
-        <v>36</v>
-      </c>
-    </row>
+    </row>
+    <row r="22" spans="2:4" ht="16.5" customHeight="1"/>
     <row r="23" spans="2:4" ht="16.5" customHeight="1"/>
     <row r="24" spans="2:4" ht="16.5" customHeight="1"/>
     <row r="25" spans="2:4" ht="16.5" customHeight="1"/>
@@ -875,7 +864,6 @@
     <row r="97" ht="16.5" customHeight="1"/>
     <row r="98" ht="16.5" customHeight="1"/>
     <row r="99" ht="16.5" customHeight="1"/>
-    <row r="100" ht="16.5" customHeight="1"/>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>

--- a/documents/nodejs 통신값.xlsx
+++ b/documents/nodejs 통신값.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KSY\Documents\GitHub\Readers\documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\OneDrive\Readers\documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{008C2B6A-07D4-47E7-AC17-FE46542BE9AD}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="3015" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="3012" windowWidth="21600" windowHeight="11388"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,13 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="37">
-  <si>
-    <t>줘야 하는 바디</t>
-  </si>
-  <si>
-    <t>넘기는 데이터</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="47">
   <si>
     <t>block.js</t>
   </si>
@@ -104,38 +97,6 @@
   </si>
   <si>
     <t>user_id, genre_name, order_by(name, update, site)</t>
-  </si>
-  <si>
-    <r>
-      <t>p</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Malgun Gothic"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>ost/detailpage</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>p</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Malgun Gothic"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>ost/episodelist</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -170,26 +131,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>toon_id, (memo.)content, 해당 작품이 구독되어있는지, 숨김되어있는지</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>p</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Malgun Gothic"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>ost/detailgenrelist</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <r>
       <t>t</t>
     </r>
@@ -213,12 +154,76 @@
     <t>toon_id, curr_epi(에피소드 이름), epi_url, epi_thumb_url, epi_date, bm_flag(북마크 여부)</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
+  <si>
+    <t>줘야 하는 바디 (from Android)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>넘기는 데이터 (from DB on server)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>주석</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>toon_id, (memo.)content, 해당 작품이 구독되어있는지, 숨김되어있는지</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>recommend.js</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>post/detailpage</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>post/episodelist</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>post/recommend</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>post/genrecount</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>post/detailgenrelist</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>상위 장르 3개 中 해당 작품 각 랜덤 1개</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>user_id</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>genre_name, rec_num</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>장르 카운트 값 - 큰 순서대로 넘겨주면 감사…</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>user_id</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>(rec_num 비교 후 상위 세 개 장르 block_flag, bm_flag, subscribe_flag 제외한 랜덤) toon_id, toon_thumb_url, toon_site, toon_name, wrt_name</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -237,16 +242,59 @@
       <family val="3"/>
       <charset val="129"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Malgun Gothic"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="5"/>
+      <name val="Malgun Gothic"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="9" tint="-0.249977111117893"/>
+      <name val="Malgun Gothic"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="9" tint="-0.249977111117893"/>
+      <name val="Malgun Gothic"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -254,16 +302,164 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -574,229 +770,303 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D99"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E98"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="12.59765625" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="10.625" customWidth="1"/>
-    <col min="2" max="2" width="15.625" customWidth="1"/>
-    <col min="3" max="3" width="52" customWidth="1"/>
-    <col min="4" max="4" width="15.25" customWidth="1"/>
-    <col min="5" max="11" width="7.625" customWidth="1"/>
+    <col min="1" max="1" width="15.5" style="1" customWidth="1"/>
+    <col min="2" max="2" width="18.3984375" style="6" customWidth="1"/>
+    <col min="3" max="3" width="41.09765625" customWidth="1"/>
+    <col min="4" max="4" width="77.8984375" customWidth="1"/>
+    <col min="5" max="5" width="40.09765625" style="22" customWidth="1"/>
+    <col min="6" max="11" width="7.59765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="16.5" customHeight="1"/>
-    <row r="2" spans="1:4" ht="16.5" customHeight="1"/>
-    <row r="3" spans="1:4" ht="16.5" customHeight="1">
-      <c r="C3" t="s">
+    <row r="1" spans="1:5" ht="16.5" customHeight="1"/>
+    <row r="2" spans="1:5" ht="16.5" customHeight="1" thickBot="1"/>
+    <row r="3" spans="1:5" s="5" customFormat="1" ht="18" thickBot="1">
+      <c r="A3" s="7"/>
+      <c r="B3" s="8"/>
+      <c r="C3" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="D3" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="E3" s="23" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" s="3" customFormat="1" ht="17.399999999999999">
+      <c r="A4" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="D3" t="s">
+      <c r="B4" s="11" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" ht="16.5" customHeight="1">
-      <c r="A4" t="s">
+      <c r="C4" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="B4" t="s">
+      <c r="D4" s="12"/>
+      <c r="E4" s="24"/>
+    </row>
+    <row r="5" spans="1:5" s="3" customFormat="1" ht="17.399999999999999">
+      <c r="A5" s="10"/>
+      <c r="B5" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C5" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="D5" s="12"/>
+      <c r="E5" s="24"/>
+    </row>
+    <row r="6" spans="1:5" s="4" customFormat="1" ht="17.399999999999999">
+      <c r="A6" s="13"/>
+      <c r="B6" s="14" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" ht="16.5" customHeight="1">
-      <c r="B5" t="s">
+      <c r="C6" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D6" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="E6" s="25"/>
+    </row>
+    <row r="7" spans="1:5" s="2" customFormat="1" ht="17.399999999999999">
+      <c r="A7" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="C7" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="D7" s="18"/>
+      <c r="E7" s="26"/>
+    </row>
+    <row r="8" spans="1:5" s="3" customFormat="1" ht="17.399999999999999">
+      <c r="A8" s="10"/>
+      <c r="B8" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="C8" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="D8" s="12"/>
+      <c r="E8" s="24"/>
+    </row>
+    <row r="9" spans="1:5" s="4" customFormat="1" ht="17.399999999999999">
+      <c r="A9" s="13"/>
+      <c r="B9" s="14" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" ht="16.5" customHeight="1">
-      <c r="B6" t="s">
-        <v>6</v>
-      </c>
-      <c r="C6" t="s">
-        <v>7</v>
-      </c>
-      <c r="D6" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="16.5" customHeight="1">
-      <c r="A7" t="s">
+      <c r="C9" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="B7" t="s">
+      <c r="D9" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="E9" s="25"/>
+    </row>
+    <row r="10" spans="1:5" s="2" customFormat="1" ht="17.399999999999999">
+      <c r="A10" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="C10" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="D10" s="18"/>
+      <c r="E10" s="26"/>
+    </row>
+    <row r="11" spans="1:5" s="3" customFormat="1" ht="17.399999999999999">
+      <c r="A11" s="10"/>
+      <c r="B11" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="C7" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" ht="16.5" customHeight="1">
-      <c r="B8" t="s">
-        <v>5</v>
-      </c>
-      <c r="C8" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" ht="16.5" customHeight="1">
-      <c r="B9" t="s">
-        <v>6</v>
-      </c>
-      <c r="C9" t="s">
-        <v>11</v>
-      </c>
-      <c r="D9" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" ht="16.5" customHeight="1">
-      <c r="A10" t="s">
-        <v>13</v>
-      </c>
-      <c r="B10" t="s">
+      <c r="C11" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="D11" s="12"/>
+      <c r="E11" s="24"/>
+    </row>
+    <row r="12" spans="1:5" s="4" customFormat="1" ht="17.399999999999999">
+      <c r="A12" s="13"/>
+      <c r="B12" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="C12" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="C10" t="s">
+      <c r="D12" s="15"/>
+      <c r="E12" s="25"/>
+    </row>
+    <row r="13" spans="1:5" s="2" customFormat="1" ht="17.399999999999999">
+      <c r="A13" s="16" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" ht="16.5" customHeight="1">
-      <c r="B11" t="s">
-        <v>5</v>
-      </c>
-      <c r="C11" t="s">
+      <c r="B13" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="C13" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="D13" s="18"/>
+      <c r="E13" s="26"/>
+    </row>
+    <row r="14" spans="1:5" s="3" customFormat="1" ht="17.399999999999999">
+      <c r="A14" s="10"/>
+      <c r="B14" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="C14" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="D14" s="12"/>
+      <c r="E14" s="24"/>
+    </row>
+    <row r="15" spans="1:5" s="4" customFormat="1" ht="17.399999999999999">
+      <c r="A15" s="13"/>
+      <c r="B15" s="14" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="12" spans="1:4" ht="16.5" customHeight="1">
-      <c r="B12" t="s">
-        <v>6</v>
-      </c>
-      <c r="C12" t="s">
+      <c r="C15" s="15" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="13" spans="1:4" ht="16.5" customHeight="1">
-      <c r="A13" t="s">
+      <c r="D15" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="B13" t="s">
-        <v>3</v>
-      </c>
-      <c r="C13" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" ht="16.5" customHeight="1">
-      <c r="B14" t="s">
-        <v>5</v>
-      </c>
-      <c r="C14" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" ht="16.5" customHeight="1">
-      <c r="B15" t="s">
-        <v>6</v>
-      </c>
-      <c r="C15" t="s">
+      <c r="E15" s="25"/>
+    </row>
+    <row r="16" spans="1:5" s="2" customFormat="1" ht="17.399999999999999">
+      <c r="A16" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="D15" t="s">
+      <c r="B16" s="17" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="16" spans="1:4" ht="16.5" customHeight="1">
-      <c r="A16" t="s">
+      <c r="C16" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="B16" t="s">
+      <c r="D16" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="C16" t="s">
+      <c r="E16" s="26"/>
+    </row>
+    <row r="17" spans="1:5" s="3" customFormat="1" ht="34.799999999999997">
+      <c r="A17" s="10"/>
+      <c r="B17" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="D16" t="s">
+      <c r="C17" s="12" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="17" spans="2:4" ht="16.5" customHeight="1">
-      <c r="B17" t="s">
+      <c r="D17" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="E17" s="24"/>
+    </row>
+    <row r="18" spans="1:5" s="3" customFormat="1" ht="34.799999999999997">
+      <c r="A18" s="10"/>
+      <c r="B18" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="C17" t="s">
+      <c r="C18" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="D17" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="18" spans="2:4" ht="16.5" customHeight="1">
-      <c r="B18" t="s">
+      <c r="D18" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="E18" s="24"/>
+    </row>
+    <row r="19" spans="1:5" s="3" customFormat="1" ht="17.399999999999999">
+      <c r="A19" s="10"/>
+      <c r="B19" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="C19" s="19" t="s">
         <v>26</v>
       </c>
-      <c r="C18" t="s">
+      <c r="D19" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="E19" s="24"/>
+    </row>
+    <row r="20" spans="1:5" s="3" customFormat="1" ht="17.399999999999999">
+      <c r="A20" s="10"/>
+      <c r="B20" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="C20" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="D18" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="19" spans="2:4" ht="16.5" customHeight="1">
-      <c r="B19" s="1" t="s">
+      <c r="D20" s="19" t="s">
+        <v>30</v>
+      </c>
+      <c r="E20" s="24"/>
+    </row>
+    <row r="21" spans="1:5" s="4" customFormat="1" ht="17.399999999999999">
+      <c r="A21" s="13"/>
+      <c r="B21" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="C21" s="20" t="s">
         <v>28</v>
       </c>
-      <c r="C19" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="20" spans="2:4" ht="16.5" customHeight="1">
-      <c r="B20" s="1" t="s">
+      <c r="D21" s="20" t="s">
         <v>29</v>
       </c>
-      <c r="C20" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="D20" s="1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="21" spans="2:4" ht="16.5" customHeight="1">
-      <c r="B21" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="D21" s="1" t="s">
+      <c r="E21" s="25"/>
+    </row>
+    <row r="22" spans="1:5" s="2" customFormat="1" ht="17.399999999999999">
+      <c r="A22" s="16" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="22" spans="2:4" ht="16.5" customHeight="1"/>
-    <row r="23" spans="2:4" ht="16.5" customHeight="1"/>
-    <row r="24" spans="2:4" ht="16.5" customHeight="1"/>
-    <row r="25" spans="2:4" ht="16.5" customHeight="1"/>
-    <row r="26" spans="2:4" ht="16.5" customHeight="1"/>
-    <row r="27" spans="2:4" ht="16.5" customHeight="1"/>
-    <row r="28" spans="2:4" ht="16.5" customHeight="1"/>
-    <row r="29" spans="2:4" ht="16.5" customHeight="1"/>
-    <row r="30" spans="2:4" ht="16.5" customHeight="1"/>
-    <row r="31" spans="2:4" ht="16.5" customHeight="1"/>
-    <row r="32" spans="2:4" ht="16.5" customHeight="1"/>
+      <c r="B22" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="C22" s="21" t="s">
+        <v>42</v>
+      </c>
+      <c r="D22" s="21" t="s">
+        <v>43</v>
+      </c>
+      <c r="E22" s="26" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" s="4" customFormat="1" ht="34.799999999999997">
+      <c r="A23" s="13"/>
+      <c r="B23" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="C23" s="20" t="s">
+        <v>45</v>
+      </c>
+      <c r="D23" s="20" t="s">
+        <v>46</v>
+      </c>
+      <c r="E23" s="25" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" ht="16.5" customHeight="1"/>
+    <row r="25" spans="1:5" ht="16.5" customHeight="1"/>
+    <row r="26" spans="1:5" ht="16.5" customHeight="1"/>
+    <row r="27" spans="1:5" ht="16.5" customHeight="1"/>
+    <row r="28" spans="1:5" ht="16.5" customHeight="1"/>
+    <row r="29" spans="1:5" ht="16.5" customHeight="1"/>
+    <row r="30" spans="1:5" ht="16.5" customHeight="1"/>
+    <row r="31" spans="1:5" ht="16.5" customHeight="1"/>
+    <row r="32" spans="1:5" ht="16.5" customHeight="1"/>
     <row r="33" ht="16.5" customHeight="1"/>
     <row r="34" ht="16.5" customHeight="1"/>
     <row r="35" ht="16.5" customHeight="1"/>
@@ -863,7 +1133,6 @@
     <row r="96" ht="16.5" customHeight="1"/>
     <row r="97" ht="16.5" customHeight="1"/>
     <row r="98" ht="16.5" customHeight="1"/>
-    <row r="99" ht="16.5" customHeight="1"/>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>

--- a/documents/nodejs 통신값.xlsx
+++ b/documents/nodejs 통신값.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\OneDrive\Readers\documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\CAU\Documents\GitHub\Readers\documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="3012" windowWidth="21600" windowHeight="11388"/>
+    <workbookView xWindow="0" yWindow="3015" windowWidth="21600" windowHeight="11385"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -773,21 +773,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E98"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.59765625" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="15.5" style="1" customWidth="1"/>
-    <col min="2" max="2" width="18.3984375" style="6" customWidth="1"/>
-    <col min="3" max="3" width="41.09765625" customWidth="1"/>
-    <col min="4" max="4" width="77.8984375" customWidth="1"/>
-    <col min="5" max="5" width="40.09765625" style="22" customWidth="1"/>
-    <col min="6" max="11" width="7.59765625" customWidth="1"/>
+    <col min="2" max="2" width="18.375" style="6" customWidth="1"/>
+    <col min="3" max="3" width="41.125" customWidth="1"/>
+    <col min="4" max="4" width="77.875" customWidth="1"/>
+    <col min="5" max="5" width="40.125" style="22" customWidth="1"/>
+    <col min="6" max="11" width="7.625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="16.5" customHeight="1"/>
     <row r="2" spans="1:5" ht="16.5" customHeight="1" thickBot="1"/>
-    <row r="3" spans="1:5" s="5" customFormat="1" ht="18" thickBot="1">
+    <row r="3" spans="1:5" s="5" customFormat="1" ht="17.25" thickBot="1">
       <c r="A3" s="7"/>
       <c r="B3" s="8"/>
       <c r="C3" s="9" t="s">
@@ -800,7 +802,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="4" spans="1:5" s="3" customFormat="1" ht="17.399999999999999">
+    <row r="4" spans="1:5" s="3" customFormat="1" ht="16.5">
       <c r="A4" s="10" t="s">
         <v>0</v>
       </c>
@@ -813,7 +815,7 @@
       <c r="D4" s="12"/>
       <c r="E4" s="24"/>
     </row>
-    <row r="5" spans="1:5" s="3" customFormat="1" ht="17.399999999999999">
+    <row r="5" spans="1:5" s="3" customFormat="1" ht="16.5">
       <c r="A5" s="10"/>
       <c r="B5" s="11" t="s">
         <v>3</v>
@@ -824,7 +826,7 @@
       <c r="D5" s="12"/>
       <c r="E5" s="24"/>
     </row>
-    <row r="6" spans="1:5" s="4" customFormat="1" ht="17.399999999999999">
+    <row r="6" spans="1:5" s="4" customFormat="1" ht="16.5">
       <c r="A6" s="13"/>
       <c r="B6" s="14" t="s">
         <v>4</v>
@@ -837,7 +839,7 @@
       </c>
       <c r="E6" s="25"/>
     </row>
-    <row r="7" spans="1:5" s="2" customFormat="1" ht="17.399999999999999">
+    <row r="7" spans="1:5" s="2" customFormat="1" ht="16.5">
       <c r="A7" s="16" t="s">
         <v>7</v>
       </c>
@@ -850,7 +852,7 @@
       <c r="D7" s="18"/>
       <c r="E7" s="26"/>
     </row>
-    <row r="8" spans="1:5" s="3" customFormat="1" ht="17.399999999999999">
+    <row r="8" spans="1:5" s="3" customFormat="1" ht="16.5">
       <c r="A8" s="10"/>
       <c r="B8" s="11" t="s">
         <v>3</v>
@@ -861,7 +863,7 @@
       <c r="D8" s="12"/>
       <c r="E8" s="24"/>
     </row>
-    <row r="9" spans="1:5" s="4" customFormat="1" ht="17.399999999999999">
+    <row r="9" spans="1:5" s="4" customFormat="1" ht="16.5">
       <c r="A9" s="13"/>
       <c r="B9" s="14" t="s">
         <v>4</v>
@@ -874,7 +876,7 @@
       </c>
       <c r="E9" s="25"/>
     </row>
-    <row r="10" spans="1:5" s="2" customFormat="1" ht="17.399999999999999">
+    <row r="10" spans="1:5" s="2" customFormat="1" ht="16.5">
       <c r="A10" s="16" t="s">
         <v>11</v>
       </c>
@@ -887,7 +889,7 @@
       <c r="D10" s="18"/>
       <c r="E10" s="26"/>
     </row>
-    <row r="11" spans="1:5" s="3" customFormat="1" ht="17.399999999999999">
+    <row r="11" spans="1:5" s="3" customFormat="1" ht="16.5">
       <c r="A11" s="10"/>
       <c r="B11" s="11" t="s">
         <v>3</v>
@@ -898,7 +900,7 @@
       <c r="D11" s="12"/>
       <c r="E11" s="24"/>
     </row>
-    <row r="12" spans="1:5" s="4" customFormat="1" ht="17.399999999999999">
+    <row r="12" spans="1:5" s="4" customFormat="1" ht="16.5">
       <c r="A12" s="13"/>
       <c r="B12" s="14" t="s">
         <v>4</v>
@@ -909,7 +911,7 @@
       <c r="D12" s="15"/>
       <c r="E12" s="25"/>
     </row>
-    <row r="13" spans="1:5" s="2" customFormat="1" ht="17.399999999999999">
+    <row r="13" spans="1:5" s="2" customFormat="1" ht="16.5">
       <c r="A13" s="16" t="s">
         <v>15</v>
       </c>
@@ -922,7 +924,7 @@
       <c r="D13" s="18"/>
       <c r="E13" s="26"/>
     </row>
-    <row r="14" spans="1:5" s="3" customFormat="1" ht="17.399999999999999">
+    <row r="14" spans="1:5" s="3" customFormat="1" ht="16.5">
       <c r="A14" s="10"/>
       <c r="B14" s="11" t="s">
         <v>3</v>
@@ -933,7 +935,7 @@
       <c r="D14" s="12"/>
       <c r="E14" s="24"/>
     </row>
-    <row r="15" spans="1:5" s="4" customFormat="1" ht="17.399999999999999">
+    <row r="15" spans="1:5" s="4" customFormat="1" ht="16.5">
       <c r="A15" s="13"/>
       <c r="B15" s="14" t="s">
         <v>4</v>
@@ -946,7 +948,7 @@
       </c>
       <c r="E15" s="25"/>
     </row>
-    <row r="16" spans="1:5" s="2" customFormat="1" ht="17.399999999999999">
+    <row r="16" spans="1:5" s="2" customFormat="1" ht="16.5">
       <c r="A16" s="16" t="s">
         <v>18</v>
       </c>
@@ -961,7 +963,7 @@
       </c>
       <c r="E16" s="26"/>
     </row>
-    <row r="17" spans="1:5" s="3" customFormat="1" ht="34.799999999999997">
+    <row r="17" spans="1:5" s="3" customFormat="1" ht="33">
       <c r="A17" s="10"/>
       <c r="B17" s="11" t="s">
         <v>22</v>
@@ -974,7 +976,7 @@
       </c>
       <c r="E17" s="24"/>
     </row>
-    <row r="18" spans="1:5" s="3" customFormat="1" ht="34.799999999999997">
+    <row r="18" spans="1:5" s="3" customFormat="1" ht="33">
       <c r="A18" s="10"/>
       <c r="B18" s="11" t="s">
         <v>24</v>
@@ -987,7 +989,7 @@
       </c>
       <c r="E18" s="24"/>
     </row>
-    <row r="19" spans="1:5" s="3" customFormat="1" ht="17.399999999999999">
+    <row r="19" spans="1:5" s="3" customFormat="1" ht="16.5">
       <c r="A19" s="10"/>
       <c r="B19" s="11" t="s">
         <v>36</v>
@@ -1000,7 +1002,7 @@
       </c>
       <c r="E19" s="24"/>
     </row>
-    <row r="20" spans="1:5" s="3" customFormat="1" ht="17.399999999999999">
+    <row r="20" spans="1:5" s="3" customFormat="1" ht="16.5">
       <c r="A20" s="10"/>
       <c r="B20" s="11" t="s">
         <v>37</v>
@@ -1013,7 +1015,7 @@
       </c>
       <c r="E20" s="24"/>
     </row>
-    <row r="21" spans="1:5" s="4" customFormat="1" ht="17.399999999999999">
+    <row r="21" spans="1:5" s="4" customFormat="1" ht="16.5">
       <c r="A21" s="13"/>
       <c r="B21" s="14" t="s">
         <v>40</v>
@@ -1026,7 +1028,7 @@
       </c>
       <c r="E21" s="25"/>
     </row>
-    <row r="22" spans="1:5" s="2" customFormat="1" ht="17.399999999999999">
+    <row r="22" spans="1:5" s="2" customFormat="1" ht="16.5">
       <c r="A22" s="16" t="s">
         <v>35</v>
       </c>
@@ -1043,7 +1045,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="23" spans="1:5" s="4" customFormat="1" ht="34.799999999999997">
+    <row r="23" spans="1:5" s="4" customFormat="1" ht="33">
       <c r="A23" s="13"/>
       <c r="B23" s="14" t="s">
         <v>38</v>

--- a/documents/nodejs 통신값.xlsx
+++ b/documents/nodejs 통신값.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\CAU\Documents\GitHub\Readers\documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KSY\Documents\GitHub\Readers\documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D4D1F25-6304-414D-9F6A-8D11D6EC48FD}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="3015" windowWidth="21600" windowHeight="11385"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -211,18 +212,18 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>user_id</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>(rec_num 비교 후 상위 세 개 장르 block_flag, bm_flag, subscribe_flag 제외한 랜덤) toon_id, toon_thumb_url, toon_site, toon_name, wrt_name</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>user_id, genre_name</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="7">
     <font>
       <sz val="11"/>
@@ -770,11 +771,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E98"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1"/>
@@ -1051,10 +1052,10 @@
         <v>38</v>
       </c>
       <c r="C23" s="20" t="s">
+        <v>46</v>
+      </c>
+      <c r="D23" s="20" t="s">
         <v>45</v>
-      </c>
-      <c r="D23" s="20" t="s">
-        <v>46</v>
       </c>
       <c r="E23" s="25" t="s">
         <v>41</v>

--- a/documents/nodejs 통신값.xlsx
+++ b/documents/nodejs 통신값.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22130"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\CAU\Documents\GitHub\Readers\documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User1\Documents\GitHub\Readers\documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9FFE090A-97A3-46E1-8347-D892E78143E6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="3015" windowWidth="21600" windowHeight="11385"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="21820" windowHeight="14020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="56">
   <si>
     <t>block.js</t>
   </si>
@@ -218,11 +219,47 @@
     <t>(rec_num 비교 후 상위 세 개 장르 block_flag, bm_flag, subscribe_flag 제외한 랜덤) toon_id, toon_thumb_url, toon_site, toon_name, wrt_name</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
+  <si>
+    <t>user.js</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>post/genre</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>user_id, genre_name</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>post/search</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>word</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>toon_id, toon_site, toon_name, wrt_name, toon_thumb_url</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>post/num</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>user_id</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>user_id, subs_num, bookmark_num, memo_num</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="7">
     <font>
       <sz val="11"/>
@@ -379,7 +416,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -460,6 +497,9 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -765,31 +805,30 @@
   </a:themeElements>
   <a:objectDefaults/>
   <a:extraClrSchemeLst/>
-  <a:extLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E98"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:E99"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="12.58203125" defaultRowHeight="15" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="15.5" style="1" customWidth="1"/>
-    <col min="2" max="2" width="18.375" style="6" customWidth="1"/>
-    <col min="3" max="3" width="41.125" customWidth="1"/>
-    <col min="4" max="4" width="77.875" customWidth="1"/>
-    <col min="5" max="5" width="40.125" style="22" customWidth="1"/>
-    <col min="6" max="11" width="7.625" customWidth="1"/>
+    <col min="2" max="2" width="18.33203125" style="6" customWidth="1"/>
+    <col min="3" max="3" width="41.08203125" customWidth="1"/>
+    <col min="4" max="4" width="77.83203125" customWidth="1"/>
+    <col min="5" max="5" width="40.08203125" style="22" customWidth="1"/>
+    <col min="6" max="11" width="7.58203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="16.5" customHeight="1"/>
     <row r="2" spans="1:5" ht="16.5" customHeight="1" thickBot="1"/>
-    <row r="3" spans="1:5" s="5" customFormat="1" ht="17.25" thickBot="1">
+    <row r="3" spans="1:5" s="5" customFormat="1" ht="17.5" thickBot="1">
       <c r="A3" s="7"/>
       <c r="B3" s="8"/>
       <c r="C3" s="9" t="s">
@@ -802,7 +841,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="4" spans="1:5" s="3" customFormat="1" ht="16.5">
+    <row r="4" spans="1:5" s="3" customFormat="1" ht="17">
       <c r="A4" s="10" t="s">
         <v>0</v>
       </c>
@@ -815,7 +854,7 @@
       <c r="D4" s="12"/>
       <c r="E4" s="24"/>
     </row>
-    <row r="5" spans="1:5" s="3" customFormat="1" ht="16.5">
+    <row r="5" spans="1:5" s="3" customFormat="1" ht="17">
       <c r="A5" s="10"/>
       <c r="B5" s="11" t="s">
         <v>3</v>
@@ -826,7 +865,7 @@
       <c r="D5" s="12"/>
       <c r="E5" s="24"/>
     </row>
-    <row r="6" spans="1:5" s="4" customFormat="1" ht="16.5">
+    <row r="6" spans="1:5" s="4" customFormat="1" ht="17">
       <c r="A6" s="13"/>
       <c r="B6" s="14" t="s">
         <v>4</v>
@@ -839,7 +878,7 @@
       </c>
       <c r="E6" s="25"/>
     </row>
-    <row r="7" spans="1:5" s="2" customFormat="1" ht="16.5">
+    <row r="7" spans="1:5" s="2" customFormat="1" ht="17">
       <c r="A7" s="16" t="s">
         <v>7</v>
       </c>
@@ -852,7 +891,7 @@
       <c r="D7" s="18"/>
       <c r="E7" s="26"/>
     </row>
-    <row r="8" spans="1:5" s="3" customFormat="1" ht="16.5">
+    <row r="8" spans="1:5" s="3" customFormat="1" ht="17">
       <c r="A8" s="10"/>
       <c r="B8" s="11" t="s">
         <v>3</v>
@@ -863,7 +902,7 @@
       <c r="D8" s="12"/>
       <c r="E8" s="24"/>
     </row>
-    <row r="9" spans="1:5" s="4" customFormat="1" ht="16.5">
+    <row r="9" spans="1:5" s="4" customFormat="1" ht="17">
       <c r="A9" s="13"/>
       <c r="B9" s="14" t="s">
         <v>4</v>
@@ -876,7 +915,7 @@
       </c>
       <c r="E9" s="25"/>
     </row>
-    <row r="10" spans="1:5" s="2" customFormat="1" ht="16.5">
+    <row r="10" spans="1:5" s="2" customFormat="1" ht="17">
       <c r="A10" s="16" t="s">
         <v>11</v>
       </c>
@@ -889,7 +928,7 @@
       <c r="D10" s="18"/>
       <c r="E10" s="26"/>
     </row>
-    <row r="11" spans="1:5" s="3" customFormat="1" ht="16.5">
+    <row r="11" spans="1:5" s="3" customFormat="1" ht="17">
       <c r="A11" s="10"/>
       <c r="B11" s="11" t="s">
         <v>3</v>
@@ -900,7 +939,7 @@
       <c r="D11" s="12"/>
       <c r="E11" s="24"/>
     </row>
-    <row r="12" spans="1:5" s="4" customFormat="1" ht="16.5">
+    <row r="12" spans="1:5" s="4" customFormat="1" ht="17">
       <c r="A12" s="13"/>
       <c r="B12" s="14" t="s">
         <v>4</v>
@@ -911,7 +950,7 @@
       <c r="D12" s="15"/>
       <c r="E12" s="25"/>
     </row>
-    <row r="13" spans="1:5" s="2" customFormat="1" ht="16.5">
+    <row r="13" spans="1:5" s="2" customFormat="1" ht="17">
       <c r="A13" s="16" t="s">
         <v>15</v>
       </c>
@@ -924,7 +963,7 @@
       <c r="D13" s="18"/>
       <c r="E13" s="26"/>
     </row>
-    <row r="14" spans="1:5" s="3" customFormat="1" ht="16.5">
+    <row r="14" spans="1:5" s="3" customFormat="1" ht="17">
       <c r="A14" s="10"/>
       <c r="B14" s="11" t="s">
         <v>3</v>
@@ -935,7 +974,7 @@
       <c r="D14" s="12"/>
       <c r="E14" s="24"/>
     </row>
-    <row r="15" spans="1:5" s="4" customFormat="1" ht="16.5">
+    <row r="15" spans="1:5" s="4" customFormat="1" ht="17">
       <c r="A15" s="13"/>
       <c r="B15" s="14" t="s">
         <v>4</v>
@@ -948,7 +987,7 @@
       </c>
       <c r="E15" s="25"/>
     </row>
-    <row r="16" spans="1:5" s="2" customFormat="1" ht="16.5">
+    <row r="16" spans="1:5" s="2" customFormat="1" ht="17">
       <c r="A16" s="16" t="s">
         <v>18</v>
       </c>
@@ -963,7 +1002,7 @@
       </c>
       <c r="E16" s="26"/>
     </row>
-    <row r="17" spans="1:5" s="3" customFormat="1" ht="33">
+    <row r="17" spans="1:5" s="3" customFormat="1" ht="34">
       <c r="A17" s="10"/>
       <c r="B17" s="11" t="s">
         <v>22</v>
@@ -976,7 +1015,7 @@
       </c>
       <c r="E17" s="24"/>
     </row>
-    <row r="18" spans="1:5" s="3" customFormat="1" ht="33">
+    <row r="18" spans="1:5" s="3" customFormat="1" ht="34">
       <c r="A18" s="10"/>
       <c r="B18" s="11" t="s">
         <v>24</v>
@@ -989,7 +1028,7 @@
       </c>
       <c r="E18" s="24"/>
     </row>
-    <row r="19" spans="1:5" s="3" customFormat="1" ht="16.5">
+    <row r="19" spans="1:5" s="3" customFormat="1" ht="17">
       <c r="A19" s="10"/>
       <c r="B19" s="11" t="s">
         <v>36</v>
@@ -1002,7 +1041,7 @@
       </c>
       <c r="E19" s="24"/>
     </row>
-    <row r="20" spans="1:5" s="3" customFormat="1" ht="16.5">
+    <row r="20" spans="1:5" s="3" customFormat="1" ht="17">
       <c r="A20" s="10"/>
       <c r="B20" s="11" t="s">
         <v>37</v>
@@ -1015,7 +1054,7 @@
       </c>
       <c r="E20" s="24"/>
     </row>
-    <row r="21" spans="1:5" s="4" customFormat="1" ht="16.5">
+    <row r="21" spans="1:5" s="4" customFormat="1" ht="17">
       <c r="A21" s="13"/>
       <c r="B21" s="14" t="s">
         <v>40</v>
@@ -1028,41 +1067,73 @@
       </c>
       <c r="E21" s="25"/>
     </row>
-    <row r="22" spans="1:5" s="2" customFormat="1" ht="16.5">
-      <c r="A22" s="16" t="s">
+    <row r="22" spans="1:5" s="3" customFormat="1" ht="17">
+      <c r="A22" s="10"/>
+      <c r="B22" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="C22" s="19" t="s">
+        <v>51</v>
+      </c>
+      <c r="D22" s="19" t="s">
+        <v>52</v>
+      </c>
+      <c r="E22" s="24"/>
+    </row>
+    <row r="23" spans="1:5" s="2" customFormat="1" ht="17">
+      <c r="A23" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="B22" s="17" t="s">
+      <c r="B23" s="17" t="s">
         <v>39</v>
       </c>
-      <c r="C22" s="21" t="s">
+      <c r="C23" s="21" t="s">
         <v>42</v>
       </c>
-      <c r="D22" s="21" t="s">
+      <c r="D23" s="21" t="s">
         <v>43</v>
       </c>
-      <c r="E22" s="26" t="s">
+      <c r="E23" s="26" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="23" spans="1:5" s="4" customFormat="1" ht="33">
-      <c r="A23" s="13"/>
-      <c r="B23" s="14" t="s">
+    <row r="24" spans="1:5" s="4" customFormat="1" ht="34">
+      <c r="A24" s="13"/>
+      <c r="B24" s="14" t="s">
         <v>38</v>
       </c>
-      <c r="C23" s="20" t="s">
+      <c r="C24" s="20" t="s">
         <v>45</v>
       </c>
-      <c r="D23" s="20" t="s">
+      <c r="D24" s="20" t="s">
         <v>46</v>
       </c>
-      <c r="E23" s="25" t="s">
+      <c r="E24" s="25" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="24" spans="1:5" ht="16.5" customHeight="1"/>
-    <row r="25" spans="1:5" ht="16.5" customHeight="1"/>
-    <row r="26" spans="1:5" ht="16.5" customHeight="1"/>
+    <row r="25" spans="1:5" ht="16.5" customHeight="1">
+      <c r="A25" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B25" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="C25" s="27" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" ht="16.5" customHeight="1">
+      <c r="B26" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="C26" s="27" t="s">
+        <v>54</v>
+      </c>
+      <c r="D26" s="27" t="s">
+        <v>55</v>
+      </c>
+    </row>
     <row r="27" spans="1:5" ht="16.5" customHeight="1"/>
     <row r="28" spans="1:5" ht="16.5" customHeight="1"/>
     <row r="29" spans="1:5" ht="16.5" customHeight="1"/>
@@ -1135,6 +1206,7 @@
     <row r="96" ht="16.5" customHeight="1"/>
     <row r="97" ht="16.5" customHeight="1"/>
     <row r="98" ht="16.5" customHeight="1"/>
+    <row r="99" ht="16.5" customHeight="1"/>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>

--- a/documents/nodejs 통신값.xlsx
+++ b/documents/nodejs 통신값.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KSY\Documents\GitHub\Readers\documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D4D1F25-6304-414D-9F6A-8D11D6EC48FD}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6F9773E-1E60-47D2-909B-CB3E764C49E6}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="14235" yWindow="2385" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="46">
   <si>
     <t>block.js</t>
   </si>
@@ -212,11 +212,7 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>(rec_num 비교 후 상위 세 개 장르 block_flag, bm_flag, subscribe_flag 제외한 랜덤) toon_id, toon_thumb_url, toon_site, toon_name, wrt_name</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>user_id, genre_name</t>
+    <t>(rec_num 비교 후 상위 세 개 장르 block_flag, bm_flag, subscribe_flag 제외한 랜덤) toon_id, toon_thumb_url, toon_site, toon_name, wrt_name, toon_desc</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -775,7 +771,7 @@
   <dimension ref="A1:E98"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C25" sqref="C25"/>
+      <selection activeCell="D29" sqref="D29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1"/>
@@ -1052,7 +1048,7 @@
         <v>38</v>
       </c>
       <c r="C23" s="20" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="D23" s="20" t="s">
         <v>45</v>

--- a/documents/nodejs 통신값.xlsx
+++ b/documents/nodejs 통신값.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KSY\Documents\GitHub\Readers\documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6F9773E-1E60-47D2-909B-CB3E764C49E6}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{672A5DDD-BE7D-435C-827C-CB4502232D42}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14235" yWindow="2385" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="52">
   <si>
     <t>block.js</t>
   </si>
@@ -214,6 +214,29 @@
   <si>
     <t>(rec_num 비교 후 상위 세 개 장르 block_flag, bm_flag, subscribe_flag 제외한 랜덤) toon_id, toon_thumb_url, toon_site, toon_name, wrt_name, toon_desc</t>
     <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>search.js</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>post/title</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>post/writer</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>post/desc</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>word</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>toon_id, toon_thumb_url, toon_site, toon_name, wrt_name, toon_desc</t>
   </si>
 </sst>
 </file>
@@ -376,7 +399,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -457,6 +480,9 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -771,7 +797,7 @@
   <dimension ref="A1:E98"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D29" sqref="D29"/>
+      <selection activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1"/>
@@ -1057,9 +1083,42 @@
         <v>41</v>
       </c>
     </row>
-    <row r="24" spans="1:5" ht="16.5" customHeight="1"/>
-    <row r="25" spans="1:5" ht="16.5" customHeight="1"/>
-    <row r="26" spans="1:5" ht="16.5" customHeight="1"/>
+    <row r="24" spans="1:5" ht="16.5" customHeight="1">
+      <c r="A24" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B24" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="C24" s="27" t="s">
+        <v>50</v>
+      </c>
+      <c r="D24" s="27" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" ht="16.5" customHeight="1">
+      <c r="B25" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="C25" s="27" t="s">
+        <v>50</v>
+      </c>
+      <c r="D25" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" ht="16.5" customHeight="1">
+      <c r="B26" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="C26" s="27" t="s">
+        <v>50</v>
+      </c>
+      <c r="D26" t="s">
+        <v>51</v>
+      </c>
+    </row>
     <row r="27" spans="1:5" ht="16.5" customHeight="1"/>
     <row r="28" spans="1:5" ht="16.5" customHeight="1"/>
     <row r="29" spans="1:5" ht="16.5" customHeight="1"/>
